--- a/team_specific_matrix/Dayton_B.xlsx
+++ b/team_specific_matrix/Dayton_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2362204724409449</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C2">
-        <v>0.4724409448818898</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01574803149606299</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1968503937007874</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07874015748031496</v>
+        <v>0.06432748538011696</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03174603174603174</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="C3">
-        <v>0.03174603174603174</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04761904761904762</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6984126984126984</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1904761904761905</v>
+        <v>0.2022471910112359</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1212121212121212</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6060606060606061</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01388888888888889</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006944444444444444</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="E6">
-        <v>0.01388888888888889</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="F6">
-        <v>0.0625</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2361111111111111</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1527777777777778</v>
+        <v>0.1695906432748538</v>
       </c>
       <c r="R6">
-        <v>0.1180555555555556</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="S6">
-        <v>0.3958333333333333</v>
+        <v>0.3742690058479532</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08163265306122448</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0272108843537415</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1020408163265306</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1564625850340136</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006802721088435374</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1904761904761905</v>
+        <v>0.1761363636363636</v>
       </c>
       <c r="R7">
-        <v>0.06802721088435375</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="S7">
-        <v>0.3673469387755102</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05172413793103448</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02068965517241379</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07241379310344828</v>
+        <v>0.0696969696969697</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1379310344827586</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01379310344827586</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1482758620689655</v>
+        <v>0.1484848484848485</v>
       </c>
       <c r="R8">
-        <v>0.1379310344827586</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="S8">
-        <v>0.4172413793103448</v>
+        <v>0.4151515151515152</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06521739130434782</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02717391304347826</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06521739130434782</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1141304347826087</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02717391304347826</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1902173913043478</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="R9">
-        <v>0.06521739130434782</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="S9">
-        <v>0.4456521739130435</v>
+        <v>0.4414414414414414</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06467065868263473</v>
+        <v>0.07321965897693079</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02395209580838323</v>
+        <v>0.02407221664994985</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06467065868263473</v>
+        <v>0.0641925777331996</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1317365269461078</v>
+        <v>0.1283851554663992</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.00718562874251497</v>
+        <v>0.009027081243731194</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1940119760479042</v>
+        <v>0.1995987963891675</v>
       </c>
       <c r="R10">
-        <v>0.07784431137724551</v>
+        <v>0.07622868605817452</v>
       </c>
       <c r="S10">
-        <v>0.4359281437125748</v>
+        <v>0.4252758274824474</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1446808510638298</v>
+        <v>0.1407942238267148</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1021276595744681</v>
+        <v>0.09025270758122744</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.1985559566787004</v>
       </c>
       <c r="L11">
-        <v>0.5276595744680851</v>
+        <v>0.5415162454873647</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02553191489361702</v>
+        <v>0.02888086642599278</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.007692307692307693</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="G12">
-        <v>0.7538461538461538</v>
+        <v>0.7564102564102564</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1769230769230769</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="K12">
-        <v>0.007692307692307693</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="L12">
-        <v>0.02307692307692308</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02158273381294964</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1510791366906475</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="I15">
-        <v>0.1151079136690648</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="J15">
-        <v>0.4100719424460432</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="K15">
-        <v>0.02877697841726619</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01438848920863309</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05755395683453238</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2014388489208633</v>
+        <v>0.2267441860465116</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01111111111111111</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1777777777777778</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="I16">
-        <v>0.07777777777777778</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J16">
-        <v>0.3333333333333333</v>
+        <v>0.3305084745762712</v>
       </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01111111111111111</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03333333333333333</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1888888888888889</v>
+        <v>0.1694915254237288</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01384083044982699</v>
+        <v>0.01152737752161383</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2214532871972318</v>
+        <v>0.207492795389049</v>
       </c>
       <c r="I17">
-        <v>0.1314878892733564</v>
+        <v>0.138328530259366</v>
       </c>
       <c r="J17">
-        <v>0.3737024221453287</v>
+        <v>0.3804034582132565</v>
       </c>
       <c r="K17">
-        <v>0.09688581314878893</v>
+        <v>0.09798270893371758</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01384083044982699</v>
+        <v>0.01440922190201729</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05536332179930796</v>
+        <v>0.05475504322766571</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09342560553633218</v>
+        <v>0.09510086455331412</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01398601398601399</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1608391608391608</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="I18">
-        <v>0.08391608391608392</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="J18">
-        <v>0.4055944055944056</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.1958041958041958</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006993006993006993</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04895104895104895</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08391608391608392</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009111617312072893</v>
+        <v>0.009606147934678195</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1958997722095672</v>
+        <v>0.1882804995196926</v>
       </c>
       <c r="I19">
-        <v>0.1287015945330296</v>
+        <v>0.1268011527377522</v>
       </c>
       <c r="J19">
-        <v>0.3394077448747153</v>
+        <v>0.3467819404418828</v>
       </c>
       <c r="K19">
-        <v>0.1275626423690205</v>
+        <v>0.1248799231508165</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02505694760820045</v>
+        <v>0.02401536983669549</v>
       </c>
       <c r="N19">
-        <v>0.001138952164009112</v>
+        <v>0.0009606147934678194</v>
       </c>
       <c r="O19">
-        <v>0.07630979498861047</v>
+        <v>0.07684918347742556</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09681093394077449</v>
+        <v>0.1018251681075889</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Dayton_B.xlsx
+++ b/team_specific_matrix/Dayton_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2222222222222222</v>
+        <v>0.21875</v>
       </c>
       <c r="C2">
-        <v>0.4970760233918128</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02339181286549707</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1929824561403509</v>
+        <v>0.1875</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06432748538011696</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02247191011235955</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C3">
-        <v>0.03370786516853932</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03370786516853932</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7078651685393258</v>
+        <v>0.7156862745098039</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2022471910112359</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01754385964912281</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01169590643274854</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E6">
-        <v>0.01169590643274854</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="F6">
-        <v>0.06432748538011696</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2280701754385965</v>
+        <v>0.2336956521739131</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005847953216374269</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1695906432748538</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="R6">
-        <v>0.1169590643274854</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="S6">
-        <v>0.3742690058479532</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08522727272727272</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02840909090909091</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1079545454545455</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1590909090909091</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005681818181818182</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1761363636363636</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="R7">
-        <v>0.07386363636363637</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="S7">
-        <v>0.3636363636363636</v>
+        <v>0.3578947368421053</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07272727272727272</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01818181818181818</v>
+        <v>0.01671309192200557</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0696969696969697</v>
+        <v>0.06963788300835655</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1333333333333333</v>
+        <v>0.1392757660167131</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01515151515151515</v>
+        <v>0.01392757660167131</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1484848484848485</v>
+        <v>0.1532033426183844</v>
       </c>
       <c r="R8">
-        <v>0.1272727272727273</v>
+        <v>0.1197771587743733</v>
       </c>
       <c r="S8">
-        <v>0.4151515151515152</v>
+        <v>0.4094707520891365</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06756756756756757</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02252252252252252</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06756756756756757</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1171171171171171</v>
+        <v>0.1125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03603603603603604</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1801801801801802</v>
+        <v>0.1791666666666667</v>
       </c>
       <c r="R9">
-        <v>0.06756756756756757</v>
+        <v>0.075</v>
       </c>
       <c r="S9">
-        <v>0.4414414414414414</v>
+        <v>0.4416666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07321965897693079</v>
+        <v>0.0728110599078341</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02407221664994985</v>
+        <v>0.02211981566820276</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0641925777331996</v>
+        <v>0.06267281105990784</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1283851554663992</v>
+        <v>0.1216589861751152</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009027081243731194</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1995987963891675</v>
+        <v>0.1981566820276498</v>
       </c>
       <c r="R10">
-        <v>0.07622868605817452</v>
+        <v>0.08018433179723503</v>
       </c>
       <c r="S10">
-        <v>0.4252758274824474</v>
+        <v>0.4331797235023042</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1407942238267148</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09025270758122744</v>
+        <v>0.08934707903780069</v>
       </c>
       <c r="K11">
-        <v>0.1985559566787004</v>
+        <v>0.1890034364261168</v>
       </c>
       <c r="L11">
-        <v>0.5415162454873647</v>
+        <v>0.5601374570446735</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02888086642599278</v>
+        <v>0.0274914089347079</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00641025641025641</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="G12">
-        <v>0.7564102564102564</v>
+        <v>0.7633136094674556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1858974358974359</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="K12">
-        <v>0.00641025641025641</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="L12">
-        <v>0.01923076923076923</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02564102564102564</v>
+        <v>0.02366863905325444</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01744186046511628</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1395348837209302</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="I15">
-        <v>0.1220930232558139</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J15">
-        <v>0.4011627906976744</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K15">
-        <v>0.03488372093023256</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01162790697674419</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04651162790697674</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2267441860465116</v>
+        <v>0.2245989304812834</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008474576271186441</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1694915254237288</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="I16">
-        <v>0.0847457627118644</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="J16">
-        <v>0.3305084745762712</v>
+        <v>0.3511450381679389</v>
       </c>
       <c r="K16">
-        <v>0.1694915254237288</v>
+        <v>0.1526717557251908</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01694915254237288</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05084745762711865</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1694915254237288</v>
+        <v>0.1603053435114504</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01152737752161383</v>
+        <v>0.01329787234042553</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.207492795389049</v>
+        <v>0.2021276595744681</v>
       </c>
       <c r="I17">
-        <v>0.138328530259366</v>
+        <v>0.1409574468085106</v>
       </c>
       <c r="J17">
-        <v>0.3804034582132565</v>
+        <v>0.3882978723404255</v>
       </c>
       <c r="K17">
-        <v>0.09798270893371758</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01440922190201729</v>
+        <v>0.01329787234042553</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05475504322766571</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09510086455331412</v>
+        <v>0.08776595744680851</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01818181818181818</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1575757575757576</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="I18">
-        <v>0.08484848484848485</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.3879781420765027</v>
       </c>
       <c r="K18">
-        <v>0.1878787878787879</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006060606060606061</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05454545454545454</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.09836065573770492</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009606147934678195</v>
+        <v>0.01155555555555556</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1882804995196926</v>
+        <v>0.192</v>
       </c>
       <c r="I19">
-        <v>0.1268011527377522</v>
+        <v>0.1226666666666667</v>
       </c>
       <c r="J19">
-        <v>0.3467819404418828</v>
+        <v>0.3502222222222222</v>
       </c>
       <c r="K19">
-        <v>0.1248799231508165</v>
+        <v>0.1217777777777778</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02401536983669549</v>
+        <v>0.02577777777777778</v>
       </c>
       <c r="N19">
-        <v>0.0009606147934678194</v>
+        <v>0.001777777777777778</v>
       </c>
       <c r="O19">
-        <v>0.07684918347742556</v>
+        <v>0.07733333333333334</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1018251681075889</v>
+        <v>0.09688888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Dayton_B.xlsx
+++ b/team_specific_matrix/Dayton_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.21875</v>
+        <v>0.2167487684729064</v>
       </c>
       <c r="C2">
-        <v>0.5104166666666666</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02083333333333333</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1875</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0625</v>
+        <v>0.05911330049261083</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0196078431372549</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C3">
-        <v>0.0392156862745098</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02941176470588235</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7156862745098039</v>
+        <v>0.7247706422018348</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.196078431372549</v>
+        <v>0.1834862385321101</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1025641025641026</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6410256410256411</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2564102564102564</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02717391304347826</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0108695652173913</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E6">
-        <v>0.0108695652173913</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="F6">
-        <v>0.05978260869565218</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2336956521739131</v>
+        <v>0.2361809045226131</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005434782608695652</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1630434782608696</v>
+        <v>0.1608040201005025</v>
       </c>
       <c r="R6">
-        <v>0.1141304347826087</v>
+        <v>0.1105527638190955</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.3768844221105528</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09473684210526316</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02631578947368421</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1578947368421053</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005263157894736842</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1789473684210526</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R7">
-        <v>0.07894736842105263</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="S7">
-        <v>0.3578947368421053</v>
+        <v>0.3768115942028986</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07799442896935933</v>
+        <v>0.07633587786259542</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01671309192200557</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06963788300835655</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1392757660167131</v>
+        <v>0.1399491094147583</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01392757660167131</v>
+        <v>0.01272264631043257</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1532033426183844</v>
+        <v>0.1628498727735369</v>
       </c>
       <c r="R8">
-        <v>0.1197771587743733</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="S8">
-        <v>0.4094707520891365</v>
+        <v>0.4045801526717557</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02083333333333333</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07083333333333333</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1125</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03333333333333333</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1791666666666667</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R9">
-        <v>0.075</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S9">
-        <v>0.4416666666666667</v>
+        <v>0.4407407407407408</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0728110599078341</v>
+        <v>0.07155172413793104</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02211981566820276</v>
+        <v>0.02327586206896552</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06267281105990784</v>
+        <v>0.06379310344827586</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1216589861751152</v>
+        <v>0.1189655172413793</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009216589861751152</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1981566820276498</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="R10">
-        <v>0.08018433179723503</v>
+        <v>0.08362068965517241</v>
       </c>
       <c r="S10">
-        <v>0.4331797235023042</v>
+        <v>0.4318965517241379</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.134020618556701</v>
+        <v>0.1446540880503145</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08934707903780069</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="K11">
-        <v>0.1890034364261168</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="L11">
-        <v>0.5601374570446735</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0274914089347079</v>
+        <v>0.02515723270440252</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.005917159763313609</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="G12">
-        <v>0.7633136094674556</v>
+        <v>0.776536312849162</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1834319526627219</v>
+        <v>0.1731843575418995</v>
       </c>
       <c r="K12">
-        <v>0.005917159763313609</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.01775147928994083</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02366863905325444</v>
+        <v>0.0223463687150838</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.675</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.325</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0160427807486631</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1283422459893048</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="I15">
-        <v>0.1176470588235294</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="J15">
-        <v>0.4117647058823529</v>
+        <v>0.4187192118226601</v>
       </c>
       <c r="K15">
-        <v>0.0427807486631016</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0106951871657754</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0481283422459893</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2245989304812834</v>
+        <v>0.2266009852216749</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007633587786259542</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1679389312977099</v>
+        <v>0.1619718309859155</v>
       </c>
       <c r="I16">
-        <v>0.0916030534351145</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="J16">
-        <v>0.3511450381679389</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="K16">
-        <v>0.1526717557251908</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01526717557251908</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05343511450381679</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1603053435114504</v>
+        <v>0.1619718309859155</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01329787234042553</v>
+        <v>0.0121654501216545</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2021276595744681</v>
+        <v>0.2092457420924574</v>
       </c>
       <c r="I17">
-        <v>0.1409574468085106</v>
+        <v>0.1386861313868613</v>
       </c>
       <c r="J17">
-        <v>0.3882978723404255</v>
+        <v>0.3819951338199513</v>
       </c>
       <c r="K17">
-        <v>0.101063829787234</v>
+        <v>0.09732360097323602</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01329787234042553</v>
+        <v>0.0121654501216545</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05319148936170213</v>
+        <v>0.06082725060827251</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08776595744680851</v>
+        <v>0.08759124087591241</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01639344262295082</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1639344262295082</v>
+        <v>0.1642512077294686</v>
       </c>
       <c r="I18">
-        <v>0.09836065573770492</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="J18">
-        <v>0.3879781420765027</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K18">
-        <v>0.1748633879781421</v>
+        <v>0.1690821256038647</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00546448087431694</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0546448087431694</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09836065573770492</v>
+        <v>0.0966183574879227</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01155555555555556</v>
+        <v>0.01153212520593081</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.192</v>
+        <v>0.1927512355848435</v>
       </c>
       <c r="I19">
-        <v>0.1226666666666667</v>
+        <v>0.1268533772652389</v>
       </c>
       <c r="J19">
-        <v>0.3502222222222222</v>
+        <v>0.3467874794069193</v>
       </c>
       <c r="K19">
-        <v>0.1217777777777778</v>
+        <v>0.1235584843492586</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02577777777777778</v>
+        <v>0.02471169686985173</v>
       </c>
       <c r="N19">
-        <v>0.001777777777777778</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="O19">
-        <v>0.07733333333333334</v>
+        <v>0.07660626029654036</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09688888888888889</v>
+        <v>0.09555189456342669</v>
       </c>
     </row>
   </sheetData>
